--- a/src/test/java/com/DEvents/tests/jsonResults/GetProfileInfo.xlsx
+++ b/src/test/java/com/DEvents/tests/jsonResults/GetProfileInfo.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="JSON_Data" r:id="rId3" sheetId="1"/>
-    <sheet name="DB_Data" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -47,22 +46,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,14 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -122,39 +105,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/src/test/java/com/DEvents/tests/jsonResults/GetProfileInfo.xlsx
+++ b/src/test/java/com/DEvents/tests/jsonResults/GetProfileInfo.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="JSON_Data" r:id="rId3" sheetId="1"/>
+    <sheet name="DB_Data" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,12 +47,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +77,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -105,4 +122,39 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>